--- a/Data_preparation/datasets/final_data/ORACLE_CORP.xlsx
+++ b/Data_preparation/datasets/final_data/ORACLE_CORP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="44">
   <si>
     <t>Ticker</t>
   </si>
@@ -146,102 +146,6 @@
   </si>
   <si>
     <t>USD</t>
-  </si>
-  <si>
-    <t>TDC</t>
-  </si>
-  <si>
-    <t>QUBT</t>
-  </si>
-  <si>
-    <t>CGNX</t>
-  </si>
-  <si>
-    <t>CRM</t>
-  </si>
-  <si>
-    <t>FTNT</t>
-  </si>
-  <si>
-    <t>ACN</t>
-  </si>
-  <si>
-    <t>HUBS</t>
-  </si>
-  <si>
-    <t>VRNT</t>
-  </si>
-  <si>
-    <t>BABA</t>
-  </si>
-  <si>
-    <t>PEGA</t>
-  </si>
-  <si>
-    <t>WDAY</t>
-  </si>
-  <si>
-    <t>TRI</t>
-  </si>
-  <si>
-    <t>CYBR</t>
-  </si>
-  <si>
-    <t>LPSN</t>
-  </si>
-  <si>
-    <t>NFLX</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>NICE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>GOOGL</t>
-  </si>
-  <si>
-    <t>AMZN</t>
-  </si>
-  <si>
-    <t>AAPL</t>
-  </si>
-  <si>
-    <t>PLTR</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>INTC</t>
-  </si>
-  <si>
-    <t>SMCI</t>
-  </si>
-  <si>
-    <t>SNPS</t>
-  </si>
-  <si>
-    <t>IONQ</t>
-  </si>
-  <si>
-    <t>APP</t>
-  </si>
-  <si>
-    <t>WIX</t>
-  </si>
-  <si>
-    <t>PTC</t>
-  </si>
-  <si>
-    <t>CRWV</t>
-  </si>
-  <si>
-    <t>BB</t>
   </si>
 </sst>
 </file>
@@ -748,22 +652,22 @@
         <v>42063</v>
       </c>
       <c r="D2">
-        <v>44.54999923706055</v>
+        <v>37.24306400146951</v>
       </c>
       <c r="E2">
-        <v>44.13999938964844</v>
+        <v>36.6819953918457</v>
       </c>
       <c r="F2">
-        <v>45.02999877929688</v>
+        <v>38.20367935666982</v>
       </c>
       <c r="G2">
-        <v>41.65999984741211</v>
+        <v>35.0752958233462</v>
       </c>
       <c r="H2">
-        <v>94500000</v>
+        <v>2850792605</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>192429701940</v>
@@ -867,22 +771,22 @@
         <v>42155</v>
       </c>
       <c r="D3">
-        <v>0.4000000059604645</v>
+        <v>37.39920613925572</v>
       </c>
       <c r="E3">
-        <v>0.6000000238418579</v>
+        <v>34.37928771972656</v>
       </c>
       <c r="F3">
-        <v>0.6000000238418579</v>
+        <v>38.59352515110287</v>
       </c>
       <c r="G3">
-        <v>0.4000000059604645</v>
+        <v>34.21720291631113</v>
       </c>
       <c r="H3">
-        <v>186750463</v>
+        <v>2850792605</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>189923874300</v>
@@ -995,22 +899,22 @@
         <v>42247</v>
       </c>
       <c r="D4">
-        <v>16.08317048093321</v>
+        <v>31.10816509049254</v>
       </c>
       <c r="E4">
-        <v>15.85255432128906</v>
+        <v>30.92834663391113</v>
       </c>
       <c r="F4">
-        <v>18.00651016728542</v>
+        <v>32.98338764468962</v>
       </c>
       <c r="G4">
-        <v>15.28062723067012</v>
+        <v>30.17483442750364</v>
       </c>
       <c r="H4">
-        <v>167899010</v>
+        <v>2850792605</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J4">
         <v>160825095930</v>
@@ -1123,22 +1027,22 @@
         <v>42338</v>
       </c>
       <c r="D5">
-        <v>79.51358336142192</v>
+        <v>33.60449193892197</v>
       </c>
       <c r="E5">
-        <v>77.58388519287109</v>
+        <v>31.40373611450196</v>
       </c>
       <c r="F5">
-        <v>81.28495099946421</v>
+        <v>33.86239221787135</v>
       </c>
       <c r="G5">
-        <v>75.06042677248134</v>
+        <v>31.03407784556851</v>
       </c>
       <c r="H5">
-        <v>952000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>166352953680</v>
@@ -1251,22 +1155,22 @@
         <v>42429</v>
       </c>
       <c r="D6">
-        <v>5.75</v>
+        <v>32.06840351101668</v>
       </c>
       <c r="E6">
-        <v>6.125999927520752</v>
+        <v>35.3140869140625</v>
       </c>
       <c r="F6">
-        <v>6.199999809265137</v>
+        <v>36.25499036721334</v>
       </c>
       <c r="G6">
-        <v>5.415999889373779</v>
+        <v>31.97344943795278</v>
       </c>
       <c r="H6">
-        <v>766266033</v>
+        <v>2850792605</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>154520871600</v>
@@ -1379,22 +1283,22 @@
         <v>42521</v>
       </c>
       <c r="D7">
-        <v>102.5648902894489</v>
+        <v>34.70927109987086</v>
       </c>
       <c r="E7">
-        <v>97.66812133789062</v>
+        <v>35.46306610107422</v>
       </c>
       <c r="F7">
-        <v>104.1253021505613</v>
+        <v>35.66234508736126</v>
       </c>
       <c r="G7">
-        <v>93.67656753890969</v>
+        <v>32.99373593928244</v>
       </c>
       <c r="H7">
-        <v>622000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>166824573000</v>
@@ -1507,22 +1411,22 @@
         <v>42613</v>
       </c>
       <c r="D8">
-        <v>54.90000152587891</v>
+        <v>35.63698320959823</v>
       </c>
       <c r="E8">
-        <v>57.61999893188477</v>
+        <v>34.15863037109375</v>
       </c>
       <c r="F8">
-        <v>59.0099983215332</v>
+        <v>36.01961434301524</v>
       </c>
       <c r="G8">
-        <v>52.84000015258789</v>
+        <v>33.66294784837945</v>
       </c>
       <c r="H8">
-        <v>52693110</v>
+        <v>2850792605</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="J8">
         <v>169938930600</v>
@@ -1635,22 +1539,22 @@
         <v>42704</v>
       </c>
       <c r="D9">
-        <v>19.28171157836914</v>
+        <v>35.01555101248438</v>
       </c>
       <c r="E9">
-        <v>17.95720863342285</v>
+        <v>33.56639099121094</v>
       </c>
       <c r="F9">
-        <v>19.84207725524902</v>
+        <v>35.91472763303917</v>
       </c>
       <c r="G9">
-        <v>17.01477241516113</v>
+        <v>32.85926947600123</v>
       </c>
       <c r="H9">
-        <v>60308678</v>
+        <v>2850792605</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J9">
         <v>165002737730</v>
@@ -1763,22 +1667,22 @@
         <v>42794</v>
       </c>
       <c r="D10">
-        <v>98.46438093908164</v>
+        <v>37.46639449288043</v>
       </c>
       <c r="E10">
-        <v>102.4056167602539</v>
+        <v>39.09651184082031</v>
       </c>
       <c r="F10">
-        <v>104.8938131001261</v>
+        <v>41.18236117208305</v>
       </c>
       <c r="G10">
-        <v>96.96386105366986</v>
+        <v>37.02819104851925</v>
       </c>
       <c r="H10">
-        <v>2319000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>174719214270</v>
@@ -1891,22 +1795,22 @@
         <v>42886</v>
       </c>
       <c r="D11">
-        <v>28.77880201112676</v>
+        <v>40.0659259440413</v>
       </c>
       <c r="E11">
-        <v>28.70500946044922</v>
+        <v>44.13236999511719</v>
       </c>
       <c r="F11">
-        <v>31.9026541283522</v>
+        <v>45.63748194577347</v>
       </c>
       <c r="G11">
-        <v>27.99169022813811</v>
+        <v>38.49920145909834</v>
       </c>
       <c r="H11">
-        <v>171080665</v>
+        <v>2850792605</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="J11">
         <v>186765506760</v>
@@ -2019,22 +1923,22 @@
         <v>42978</v>
       </c>
       <c r="D12">
-        <v>109.5999984741211</v>
+        <v>44.48437112272137</v>
       </c>
       <c r="E12">
-        <v>105.3899993896484</v>
+        <v>42.71736526489258</v>
       </c>
       <c r="F12">
-        <v>110.9499969482422</v>
+        <v>46.94934510326362</v>
       </c>
       <c r="G12">
-        <v>98.45999908447266</v>
+        <v>42.09007899423445</v>
       </c>
       <c r="H12">
-        <v>217000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>208199205060</v>
@@ -2147,22 +2051,22 @@
         <v>43069</v>
       </c>
       <c r="D13">
-        <v>38.98032959138032</v>
+        <v>43.50675167648554</v>
       </c>
       <c r="E13">
-        <v>38.25197219848633</v>
+        <v>41.93678283691406</v>
       </c>
       <c r="F13">
-        <v>39.23481738528589</v>
+        <v>44.97915131497105</v>
       </c>
       <c r="G13">
-        <v>37.77809937580747</v>
+        <v>41.68842733130614</v>
       </c>
       <c r="H13">
-        <v>450687724</v>
+        <v>2850792605</v>
       </c>
       <c r="I13" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J13">
         <v>204729980180</v>
@@ -2275,22 +2179,22 @@
         <v>43159</v>
       </c>
       <c r="D14">
-        <v>49.41999816894531</v>
+        <v>45.37690538274636</v>
       </c>
       <c r="E14">
-        <v>51.02000045776367</v>
+        <v>40.73770523071289</v>
       </c>
       <c r="F14">
-        <v>52.90000152587891</v>
+        <v>47.62081873421386</v>
       </c>
       <c r="G14">
-        <v>48.66999816894531</v>
+        <v>39.63355609709607</v>
       </c>
       <c r="H14">
-        <v>50476952</v>
+        <v>2850792605</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="J14">
         <v>209753633340</v>
@@ -2391,22 +2295,22 @@
         <v>43251</v>
       </c>
       <c r="D15">
-        <v>19.5</v>
+        <v>42.09558244994729</v>
       </c>
       <c r="E15">
-        <v>21.10000038146973</v>
+        <v>39.39531326293945</v>
       </c>
       <c r="F15">
-        <v>24.07999992370605</v>
+        <v>43.51724386315139</v>
       </c>
       <c r="G15">
-        <v>19.32999992370605</v>
+        <v>38.06305994800678</v>
       </c>
       <c r="H15">
-        <v>150594095</v>
+        <v>2850792605</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>190725663360</v>
@@ -2519,22 +2423,22 @@
         <v>43343</v>
       </c>
       <c r="D16">
-        <v>366.4700012207031</v>
+        <v>43.40966200385802</v>
       </c>
       <c r="E16">
-        <v>374.1300048828125</v>
+        <v>46.28209686279297</v>
       </c>
       <c r="F16">
-        <v>383.2000122070313</v>
+        <v>46.77579580162358</v>
       </c>
       <c r="G16">
-        <v>335.8299865722656</v>
+        <v>42.48509834981842</v>
       </c>
       <c r="H16">
-        <v>424926346</v>
+        <v>2850792605</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>193404509900</v>
@@ -2647,22 +2551,22 @@
         <v>43434</v>
       </c>
       <c r="D17">
-        <v>28.30773105702722</v>
+        <v>44.55779645444244</v>
       </c>
       <c r="E17">
-        <v>24.80602836608887</v>
+        <v>40.69143676757812</v>
       </c>
       <c r="F17">
-        <v>28.33530415410917</v>
+        <v>45.26077375586883</v>
       </c>
       <c r="G17">
-        <v>23.41821403381436</v>
+        <v>38.21299939594923</v>
       </c>
       <c r="H17">
-        <v>174270076</v>
+        <v>2850792605</v>
       </c>
       <c r="I17" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <v>184700929600</v>
@@ -2775,22 +2679,22 @@
         <v>43524</v>
       </c>
       <c r="D18">
-        <v>117.4599990844727</v>
+        <v>47.50294181276178</v>
       </c>
       <c r="E18">
-        <v>122.5100021362305</v>
+        <v>48.59777069091797</v>
       </c>
       <c r="F18">
-        <v>123.5699996948242</v>
+        <v>49.20400050507813</v>
       </c>
       <c r="G18">
-        <v>112.5999984741211</v>
+        <v>46.14571490382573</v>
       </c>
       <c r="H18">
-        <v>61741703</v>
+        <v>2850792605</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>187090347470</v>
@@ -2891,22 +2795,22 @@
         <v>43616</v>
       </c>
       <c r="D19">
-        <v>27.72999954223633</v>
+        <v>45.95247105063323</v>
       </c>
       <c r="E19">
-        <v>28.04000091552734</v>
+        <v>51.77832794189453</v>
       </c>
       <c r="F19">
-        <v>29.19000053405762</v>
+        <v>52.23276296763118</v>
       </c>
       <c r="G19">
-        <v>25.8700008392334</v>
+        <v>45.34352631327278</v>
       </c>
       <c r="H19">
-        <v>150594095</v>
+        <v>2850792605</v>
       </c>
       <c r="I19" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="J19">
         <v>172933292400</v>
@@ -3019,22 +2923,22 @@
         <v>43708</v>
       </c>
       <c r="D20">
-        <v>62.14997478545119</v>
+        <v>47.39780185961966</v>
       </c>
       <c r="E20">
-        <v>60.79552841186523</v>
+        <v>50.21757888793945</v>
       </c>
       <c r="F20">
-        <v>64.79523291027149</v>
+        <v>51.36739277270608</v>
       </c>
       <c r="G20">
-        <v>59.82286973629873</v>
+        <v>47.04190824612959</v>
       </c>
       <c r="H20">
-        <v>450687724</v>
+        <v>2850792605</v>
       </c>
       <c r="I20" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="J20">
         <v>173662737140</v>
@@ -3147,22 +3051,22 @@
         <v>43799</v>
       </c>
       <c r="D21">
-        <v>5.387734816364808</v>
+        <v>51.54150928394218</v>
       </c>
       <c r="E21">
-        <v>5.856666564941406</v>
+        <v>48.56249618530273</v>
       </c>
       <c r="F21">
-        <v>6.018701599842053</v>
+        <v>51.9356559121076</v>
       </c>
       <c r="G21">
-        <v>4.987251524861012</v>
+        <v>48.16834955713731</v>
       </c>
       <c r="H21">
-        <v>24347000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I21" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J21">
         <v>184606846200</v>
@@ -3275,22 +3179,22 @@
         <v>43890</v>
       </c>
       <c r="D22">
-        <v>67.10666550667608</v>
+        <v>45.78635957449623</v>
       </c>
       <c r="E22">
-        <v>57.69954299926758</v>
+        <v>44.49738311767578</v>
       </c>
       <c r="F22">
-        <v>69.92720840862992</v>
+        <v>47.72903497238984</v>
       </c>
       <c r="G22">
-        <v>50.09797211347052</v>
+        <v>36.56095542973775</v>
       </c>
       <c r="H22">
-        <v>5817000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I22" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="J22">
         <v>158650319540</v>
@@ -3403,22 +3307,22 @@
         <v>43982</v>
       </c>
       <c r="D23">
-        <v>122.4000015258789</v>
+        <v>49.28789106867275</v>
       </c>
       <c r="E23">
-        <v>137.9409942626953</v>
+        <v>51.12878799438477</v>
       </c>
       <c r="F23">
-        <v>139.8000030517578</v>
+        <v>51.77633983639333</v>
       </c>
       <c r="G23">
-        <v>121.8564987182617</v>
+        <v>47.09546892407997</v>
       </c>
       <c r="H23">
-        <v>10664912097</v>
+        <v>2850792605</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="J23">
         <v>169568211680</v>
@@ -3531,22 +3435,22 @@
         <v>44074</v>
       </c>
       <c r="D24">
-        <v>24.11105537414551</v>
+        <v>53.29580810725422</v>
       </c>
       <c r="E24">
-        <v>24.54406547546387</v>
+        <v>55.46034240722656</v>
       </c>
       <c r="F24">
-        <v>27.68211936950684</v>
+        <v>58.15439373029037</v>
       </c>
       <c r="G24">
-        <v>23.26540946960449</v>
+        <v>50.97334823713411</v>
       </c>
       <c r="H24">
-        <v>60308678</v>
+        <v>2850792605</v>
       </c>
       <c r="I24" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="J24">
         <v>175589984040</v>
@@ -3659,22 +3563,22 @@
         <v>44165</v>
       </c>
       <c r="D25">
-        <v>117.911643493213</v>
+        <v>54.28579316144116</v>
       </c>
       <c r="E25">
-        <v>129.2925872802734</v>
+        <v>60.33931350708008</v>
       </c>
       <c r="F25">
-        <v>135.2363930244096</v>
+        <v>61.74775420121157</v>
       </c>
       <c r="G25">
-        <v>116.9372476464922</v>
+        <v>54.10856922502986</v>
       </c>
       <c r="H25">
-        <v>14840390000</v>
+        <v>2850792605</v>
       </c>
       <c r="I25" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J25">
         <v>173573332920</v>
@@ -3787,22 +3691,22 @@
         <v>44255</v>
       </c>
       <c r="D26">
-        <v>25.19000053405762</v>
+        <v>60.81365251966963</v>
       </c>
       <c r="E26">
-        <v>23.29000091552734</v>
+        <v>65.70121765136719</v>
       </c>
       <c r="F26">
-        <v>27.46999931335449</v>
+        <v>68.93150848175571</v>
       </c>
       <c r="G26">
-        <v>20.18000030517578</v>
+        <v>60.64511554466227</v>
       </c>
       <c r="H26">
-        <v>2274261581</v>
+        <v>2850792605</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>189919633340</v>
@@ -3915,22 +3819,22 @@
         <v>44347</v>
       </c>
       <c r="D27">
-        <v>56.926873789871</v>
+        <v>74.8343238858025</v>
       </c>
       <c r="E27">
-        <v>64.96807098388672</v>
+        <v>73.19808197021484</v>
       </c>
       <c r="F27">
-        <v>65.38447790204948</v>
+        <v>79.95931543414696</v>
       </c>
       <c r="G27">
-        <v>56.19585490044523</v>
+        <v>71.37377690916358</v>
       </c>
       <c r="H27">
-        <v>457000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I27" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J27">
         <v>227049545900</v>
@@ -4043,22 +3947,22 @@
         <v>44439</v>
       </c>
       <c r="D28">
-        <v>49.8386211087554</v>
+        <v>84.24668533804817</v>
       </c>
       <c r="E28">
-        <v>49.07413864135742</v>
+        <v>82.23631286621094</v>
       </c>
       <c r="F28">
-        <v>51.10968652342323</v>
+        <v>87.08762253295926</v>
       </c>
       <c r="G28">
-        <v>48.189920750097</v>
+        <v>79.97111540070151</v>
       </c>
       <c r="H28">
-        <v>4757218036</v>
+        <v>2850792605</v>
       </c>
       <c r="I28" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>248850960000</v>
@@ -4171,22 +4075,22 @@
         <v>44530</v>
       </c>
       <c r="D29">
-        <v>4.199999809265137</v>
+        <v>86.84127566709687</v>
       </c>
       <c r="E29">
-        <v>4.394999980926514</v>
+        <v>82.59818267822266</v>
       </c>
       <c r="F29">
-        <v>4.640999794006348</v>
+        <v>100.716552410588</v>
       </c>
       <c r="G29">
-        <v>3.993000030517578</v>
+        <v>82.56977028654167</v>
       </c>
       <c r="H29">
-        <v>594273308</v>
+        <v>2850792605</v>
       </c>
       <c r="I29" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>248462362460</v>
@@ -4287,22 +4191,22 @@
         <v>44620</v>
       </c>
       <c r="D30">
-        <v>311.9800109863281</v>
+        <v>72.2293673121553</v>
       </c>
       <c r="E30">
-        <v>333.2699890136719</v>
+        <v>78.64616394042969</v>
       </c>
       <c r="F30">
-        <v>342.5899963378906</v>
+        <v>80.33829581677409</v>
       </c>
       <c r="G30">
-        <v>277.1600036621094</v>
+        <v>69.50103783846555</v>
       </c>
       <c r="H30">
-        <v>185748673</v>
+        <v>2850792605</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="J30">
         <v>202873858590</v>
@@ -4415,22 +4319,22 @@
         <v>44712</v>
       </c>
       <c r="D31">
-        <v>5.739999771118164</v>
+        <v>69.68703043605703</v>
       </c>
       <c r="E31">
-        <v>4.380000114440918</v>
+        <v>66.68081665039062</v>
       </c>
       <c r="F31">
-        <v>6.034999847412109</v>
+        <v>71.42395703092936</v>
       </c>
       <c r="G31">
-        <v>4.215000152587891</v>
+        <v>60.84970073820917</v>
       </c>
       <c r="H31">
-        <v>323054568</v>
+        <v>2850792605</v>
       </c>
       <c r="I31" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>191893851440</v>
@@ -4543,22 +4447,22 @@
         <v>44804</v>
       </c>
       <c r="D32">
-        <v>88.08422192716088</v>
+        <v>71.0531900320821</v>
       </c>
       <c r="E32">
-        <v>75.96611022949219</v>
+        <v>58.54314804077149</v>
       </c>
       <c r="F32">
-        <v>90.06908123986936</v>
+        <v>76.12431019388195</v>
       </c>
       <c r="G32">
-        <v>72.44274222187759</v>
+        <v>58.26514629499589</v>
       </c>
       <c r="H32">
-        <v>2319000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>197604262900</v>
@@ -4671,22 +4575,22 @@
         <v>44895</v>
       </c>
       <c r="D33">
-        <v>5.119999885559082</v>
+        <v>80.02295385674852</v>
       </c>
       <c r="E33">
-        <v>3.450000047683716</v>
+        <v>78.76069641113281</v>
       </c>
       <c r="F33">
-        <v>5.260000228881836</v>
+        <v>82.46073794023771</v>
       </c>
       <c r="G33">
-        <v>3.039999961853028</v>
+        <v>75.21482664842642</v>
       </c>
       <c r="H33">
-        <v>323054568</v>
+        <v>2850792605</v>
       </c>
       <c r="I33" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J33">
         <v>223820068590</v>
@@ -4787,22 +4691,22 @@
         <v>44985</v>
       </c>
       <c r="D34">
-        <v>9.916000366210938</v>
+        <v>84.04659973625427</v>
       </c>
       <c r="E34">
-        <v>10.65499973297119</v>
+        <v>89.86892700195312</v>
       </c>
       <c r="F34">
-        <v>11.83600044250488</v>
+        <v>89.94630193583984</v>
       </c>
       <c r="G34">
-        <v>8.725000381469727</v>
+        <v>79.34617949639355</v>
       </c>
       <c r="H34">
-        <v>594273308</v>
+        <v>2850792605</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="J34">
         <v>235652512200</v>
@@ -4915,22 +4819,22 @@
         <v>45077</v>
       </c>
       <c r="D35">
-        <v>38.45917687257426</v>
+        <v>101.8609898649105</v>
       </c>
       <c r="E35">
-        <v>42.26922225952149</v>
+        <v>115.6619491577148</v>
       </c>
       <c r="F35">
-        <v>43.9559179228158</v>
+        <v>123.8687173993402</v>
       </c>
       <c r="G35">
-        <v>37.32705530814628</v>
+        <v>101.7638698818279</v>
       </c>
       <c r="H35">
-        <v>24347000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I35" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>286017023880</v>
@@ -5043,22 +4947,22 @@
         <v>45169</v>
       </c>
       <c r="D36">
-        <v>246.5399932861328</v>
+        <v>117.9391190746662</v>
       </c>
       <c r="E36">
-        <v>214.8500061035156</v>
+        <v>103.2320556640625</v>
       </c>
       <c r="F36">
-        <v>252.7200012207031</v>
+        <v>124.1864479898365</v>
       </c>
       <c r="G36">
-        <v>202.6499938964844</v>
+        <v>100.649303494892</v>
       </c>
       <c r="H36">
-        <v>217000000</v>
+        <v>2850792605</v>
       </c>
       <c r="I36" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>326769641010</v>
@@ -5171,22 +5075,22 @@
         <v>45260</v>
       </c>
       <c r="D37">
-        <v>37.65000152587891</v>
+        <v>113.5384514091064</v>
       </c>
       <c r="E37">
-        <v>39.84999847412109</v>
+        <v>103.1305160522461</v>
       </c>
       <c r="F37">
-        <v>44.56999969482422</v>
+        <v>114.7905327357973</v>
       </c>
       <c r="G37">
-        <v>35.79000091552734</v>
+        <v>97.09508881746588</v>
       </c>
       <c r="H37">
-        <v>307636373</v>
+        <v>2850792605</v>
       </c>
       <c r="I37" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="J37">
         <v>318394598410</v>
@@ -5299,22 +5203,22 @@
         <v>45351</v>
       </c>
       <c r="D38">
-        <v>140</v>
+        <v>109.6675026262743</v>
       </c>
       <c r="E38">
-        <v>137.4799957275391</v>
+        <v>123.3464813232422</v>
       </c>
       <c r="F38">
-        <v>146.2100067138672</v>
+        <v>130.3774601759717</v>
       </c>
       <c r="G38">
-        <v>133.8500061035156</v>
+        <v>108.3811115060655</v>
       </c>
       <c r="H38">
-        <v>55686229</v>
+        <v>2850792605</v>
       </c>
       <c r="I38" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J38">
         <v>306999608960</v>
@@ -5427,22 +5331,22 @@
         <v>45443</v>
       </c>
       <c r="D39">
-        <v>177</v>
+        <v>115.7845283323148</v>
       </c>
       <c r="E39">
-        <v>181.6699981689453</v>
+        <v>139.1029968261719</v>
       </c>
       <c r="F39">
-        <v>184.479995727539</v>
+        <v>143.161819791043</v>
       </c>
       <c r="G39">
-        <v>168.1799926757812</v>
+        <v>115.5973476696015</v>
       </c>
       <c r="H39">
-        <v>119792704</v>
+        <v>2850792605</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>322098355660</v>
@@ -5555,22 +5459,22 @@
         <v>45535</v>
       </c>
       <c r="D40">
-        <v>164.9700012207031</v>
+        <v>138.7547871346323</v>
       </c>
       <c r="E40">
-        <v>167.1699981689453</v>
+        <v>168.3432922363281</v>
       </c>
       <c r="F40">
-        <v>172.4499969482422</v>
+        <v>171.8899729464154</v>
       </c>
       <c r="G40">
-        <v>150.3899993896484</v>
+        <v>136.2849617492717</v>
       </c>
       <c r="H40">
-        <v>55686229</v>
+        <v>2850792605</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>389375459400</v>
@@ -5683,22 +5587,22 @@
         <v>45626</v>
       </c>
       <c r="D41">
-        <v>198.6999969482422</v>
+        <v>183.4651931344328</v>
       </c>
       <c r="E41">
-        <v>183.8699951171875</v>
+        <v>164.9988708496094</v>
       </c>
       <c r="F41">
-        <v>203.0899963378907</v>
+        <v>196.3569718867232</v>
       </c>
       <c r="G41">
-        <v>181.4400024414062</v>
+        <v>162.9294575209077</v>
       </c>
       <c r="H41">
-        <v>119792704</v>
+        <v>2850792605</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>512185725120</v>
@@ -5811,22 +5715,22 @@
         <v>45716</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>165.7121281340302</v>
       </c>
       <c r="E42">
-        <v>37.08000183105469</v>
+        <v>138.7733612060547</v>
       </c>
       <c r="F42">
-        <v>41.93999862670898</v>
+        <v>165.8808658331603</v>
       </c>
       <c r="G42">
-        <v>36</v>
+        <v>135.7459727318952</v>
       </c>
       <c r="H42">
-        <v>380162985</v>
+        <v>2850792605</v>
       </c>
       <c r="I42" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>464462513360</v>
@@ -5939,22 +5843,22 @@
         <v>45808</v>
       </c>
       <c r="D43">
-        <v>40.0099983215332</v>
+        <v>163.5380963361446</v>
       </c>
       <c r="E43">
-        <v>42.97000122070312</v>
+        <v>217.7884826660156</v>
       </c>
       <c r="F43">
-        <v>44.09999847412109</v>
+        <v>227.3415664356535</v>
       </c>
       <c r="G43">
-        <v>35.92699813842773</v>
+        <v>161.9741472802459</v>
       </c>
       <c r="H43">
-        <v>323054568</v>
+        <v>2850792605</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>464184854020</v>
@@ -6067,22 +5971,22 @@
         <v>45900</v>
       </c>
       <c r="D44">
-        <v>3.75</v>
+        <v>221.6154127447244</v>
       </c>
       <c r="E44">
-        <v>4.880000114440918</v>
+        <v>280.7527770996094</v>
       </c>
       <c r="F44">
-        <v>5.070000171661377</v>
+        <v>345.1210845253727</v>
       </c>
       <c r="G44">
-        <v>3.690000057220459</v>
+        <v>218.4109669663144</v>
       </c>
       <c r="H44">
-        <v>590361084</v>
+        <v>2850792605</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J44">
         <v>635161406290</v>
